--- a/output.xlsx
+++ b/output.xlsx
@@ -40,13 +40,13 @@
     <t>Claim Date Valid</t>
   </si>
   <si>
-    <t>CL/83000031170200000000</t>
+    <t>Cl/3001/W-73056625/00/000/0000</t>
+  </si>
+  <si>
+    <t>Not Verified</t>
   </si>
   <si>
     <t>Verified</t>
-  </si>
-  <si>
-    <t>Not Verified</t>
   </si>
 </sst>
 </file>
@@ -152,32 +152,32 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
